--- a/MHLW賃構_英文表記.xlsx
+++ b/MHLW賃構_英文表記.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KensukeSuzuki\Box\2021\03_Research\03_Project\01_ForeignLabor\06_GovDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F3C7B5-CF22-42FC-A77F-04B07CE7A548}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC8BC15-CD2B-418D-9E32-57EAC168AFEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40935" yWindow="5460" windowWidth="17880" windowHeight="11625" xr2:uid="{0809E8C9-CB20-4E2D-8440-715BB9CF4EAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="1" xr2:uid="{0809E8C9-CB20-4E2D-8440-715BB9CF4EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Varlist" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="442">
   <si>
     <t>自然科学系研究者</t>
   </si>
@@ -1479,6 +1479,94 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>エイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理的職業従事者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Administrative and managerial workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部長級</t>
+    <rPh sb="0" eb="3">
+      <t>ブチョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Director (Sr management)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理的職業従事者</t>
+  </si>
+  <si>
+    <t>課長級</t>
+    <rPh sb="0" eb="3">
+      <t>カチョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sector manager (Mid management)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>係長級</t>
+    <rPh sb="0" eb="3">
+      <t>カカリチョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chief (Low management)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職長級</t>
+    <rPh sb="0" eb="2">
+      <t>ショクチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Foreman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他の役職</t>
+  </si>
+  <si>
+    <t>Other manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職番号101～105については、日本標準職業分類のAに該当するものと見なす。</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="25">
+      <t>ニホンヒョウジュンショクギョウブンルイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1872,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25191DE8-1894-449E-A6F9-1EFB32476A0F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1932,57 +2020,62 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" t="s">
-        <v>399</v>
+      <c r="D7" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>389</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>391</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>392</v>
       </c>
     </row>
@@ -1997,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CC1B7D-FB70-4A43-A3CE-5EC39BE5B37B}">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C128" sqref="C128:C130"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4607,6 +4700,106 @@
       </c>
       <c r="F130" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>427</v>
+      </c>
+      <c r="B131" t="s">
+        <v>428</v>
+      </c>
+      <c r="C131" t="s">
+        <v>429</v>
+      </c>
+      <c r="D131">
+        <v>101</v>
+      </c>
+      <c r="E131" t="s">
+        <v>430</v>
+      </c>
+      <c r="F131" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>427</v>
+      </c>
+      <c r="B132" t="s">
+        <v>432</v>
+      </c>
+      <c r="C132" t="s">
+        <v>429</v>
+      </c>
+      <c r="D132">
+        <v>102</v>
+      </c>
+      <c r="E132" t="s">
+        <v>433</v>
+      </c>
+      <c r="F132" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>427</v>
+      </c>
+      <c r="B133" t="s">
+        <v>432</v>
+      </c>
+      <c r="C133" t="s">
+        <v>429</v>
+      </c>
+      <c r="D133">
+        <v>103</v>
+      </c>
+      <c r="E133" t="s">
+        <v>435</v>
+      </c>
+      <c r="F133" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>427</v>
+      </c>
+      <c r="B134" t="s">
+        <v>432</v>
+      </c>
+      <c r="C134" t="s">
+        <v>429</v>
+      </c>
+      <c r="D134">
+        <v>104</v>
+      </c>
+      <c r="E134" t="s">
+        <v>437</v>
+      </c>
+      <c r="F134" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>427</v>
+      </c>
+      <c r="B135" t="s">
+        <v>432</v>
+      </c>
+      <c r="C135" t="s">
+        <v>429</v>
+      </c>
+      <c r="D135">
+        <v>105</v>
+      </c>
+      <c r="E135" t="s">
+        <v>439</v>
+      </c>
+      <c r="F135" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4810,7 +5003,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/MHLW賃構_英文表記.xlsx
+++ b/MHLW賃構_英文表記.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KensukeSuzuki\Box\2021\03_Research\03_Project\01_ForeignLabor\06_GovDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC8BC15-CD2B-418D-9E32-57EAC168AFEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58488C98-7F65-47B9-A3AD-0CC0B7CCEBB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="1" xr2:uid="{0809E8C9-CB20-4E2D-8440-715BB9CF4EAE}"/>
+    <workbookView xWindow="3165" yWindow="2325" windowWidth="17880" windowHeight="11625" activeTab="1" xr2:uid="{0809E8C9-CB20-4E2D-8440-715BB9CF4EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Varlist" sheetId="3" r:id="rId1"/>
     <sheet name="Occ" sheetId="2" r:id="rId2"/>
-    <sheet name="EmpType" sheetId="4" r:id="rId3"/>
-    <sheet name="Edu" sheetId="5" r:id="rId4"/>
-    <sheet name="WorkType" sheetId="6" r:id="rId5"/>
-    <sheet name="Class" sheetId="7" r:id="rId6"/>
-    <sheet name="Residence" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="EmpType" sheetId="4" r:id="rId4"/>
+    <sheet name="Edu" sheetId="5" r:id="rId5"/>
+    <sheet name="WorkType" sheetId="6" r:id="rId6"/>
+    <sheet name="Class" sheetId="7" r:id="rId7"/>
+    <sheet name="Residence" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Occ!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Occ!$A$1:$F$135</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -504,9 +505,6 @@
     <t>Clinical examination technician</t>
   </si>
   <si>
-    <t>Physicaltherapist or occupat</t>
-  </si>
-  <si>
     <t>Dental hygienist</t>
   </si>
   <si>
@@ -525,15 +523,9 @@
     <t>Home helper</t>
   </si>
   <si>
-    <t>Nursing-care worker of welfare f</t>
-  </si>
-  <si>
     <t>Lawyer</t>
   </si>
   <si>
-    <t>Certified public accountant or</t>
-  </si>
-  <si>
     <t>Certified Social insurance labor</t>
   </si>
   <si>
@@ -549,18 +541,12 @@
     <t>Professor of college and university</t>
   </si>
   <si>
-    <t>Assistant professor of college and</t>
-  </si>
-  <si>
     <t>Lecturer</t>
   </si>
   <si>
     <t>Miscellaneous school teacher</t>
   </si>
   <si>
-    <t>Tutor or cram school lectur</t>
-  </si>
-  <si>
     <t>Journalist</t>
   </si>
   <si>
@@ -579,18 +565,12 @@
     <t>Salesclerk, department-store</t>
   </si>
   <si>
-    <t>Salesperson (except sal</t>
-  </si>
-  <si>
     <t>Cashier, supermarket</t>
   </si>
   <si>
     <t>Salesperson of motor vehicles</t>
   </si>
   <si>
-    <t>Salesperson of household utens</t>
-  </si>
-  <si>
     <t>Insurance canvasser</t>
   </si>
   <si>
@@ -639,12 +619,6 @@
     <t>Bus driver, business</t>
   </si>
   <si>
-    <t>Large-sized truck driver,</t>
-  </si>
-  <si>
-    <t>Small-sized or regular-</t>
-  </si>
-  <si>
     <t>Pilot</t>
   </si>
   <si>
@@ -681,9 +655,6 @@
     <t>Glass former</t>
   </si>
   <si>
-    <t>Pottery worker, pottery and porcela</t>
-  </si>
-  <si>
     <t>Lathes operator</t>
   </si>
   <si>
@@ -720,15 +691,6 @@
     <t>Machine mender</t>
   </si>
   <si>
-    <t>Heavy electric equipment assembl</t>
-  </si>
-  <si>
-    <t>Assembler, communication equipme</t>
-  </si>
-  <si>
-    <t>Semiconductor tips maker</t>
-  </si>
-  <si>
     <t>Printing wirer</t>
   </si>
   <si>
@@ -901,10 +863,6 @@
   </si>
   <si>
     <t>職長級</t>
-  </si>
-  <si>
-    <t>mhlw_occc_en</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>mhlw_occ_jp</t>
@@ -1502,10 +1460,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Director (Sr management)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理的職業従事者</t>
   </si>
   <si>
@@ -1516,18 +1470,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sector manager (Mid management)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>係長級</t>
     <rPh sb="0" eb="3">
       <t>カカリチョウキュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chief (Low management)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1541,15 +1487,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Foreman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その他の役職</t>
-  </si>
-  <si>
-    <t>Other manager</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>役職番号101～105については、日本標準職業分類のAに該当するものと見なす。</t>
@@ -1569,6 +1507,63 @@
       <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nursing-care worker of welfare facility</t>
+  </si>
+  <si>
+    <t>Assistant professor of college and university</t>
+  </si>
+  <si>
+    <t>Tutor or cram school lecturer</t>
+  </si>
+  <si>
+    <t>Certified public accountant or licensed tax account</t>
+  </si>
+  <si>
+    <t>Large-sized truck driver, business</t>
+  </si>
+  <si>
+    <t>Small-sized or regular-sized truck driver, business</t>
+  </si>
+  <si>
+    <t>Pottery worker, pottery and porcelain</t>
+  </si>
+  <si>
+    <t>Heavy electric equipment assembler</t>
+  </si>
+  <si>
+    <t>Assembler, communication equipmet</t>
+  </si>
+  <si>
+    <t>mhlw_occc_en</t>
+  </si>
+  <si>
+    <t>Physical Therapist or occupat</t>
+  </si>
+  <si>
+    <t>Salesperson (exc sales-clerk, department store)</t>
+  </si>
+  <si>
+    <t>Salesperson of household utensil</t>
+  </si>
+  <si>
+    <t>Semiconductor chips maker</t>
+  </si>
+  <si>
+    <t>Director (Sr management)</t>
+  </si>
+  <si>
+    <t>Sector manager (Mid management)</t>
+  </si>
+  <si>
+    <t>Chief (Low management)</t>
+  </si>
+  <si>
+    <t>Foreman</t>
+  </si>
+  <si>
+    <t>Other manager</t>
   </si>
 </sst>
 </file>
@@ -1975,12 +1970,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1988,95 +1983,95 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2092,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CC1B7D-FB70-4A43-A3CE-5EC39BE5B37B}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:F135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2107,19 +2102,19 @@
         <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
-        <v>289</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2127,10 +2122,10 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D2">
         <v>201</v>
@@ -2147,10 +2142,10 @@
         <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D3">
         <v>202</v>
@@ -2167,10 +2162,10 @@
         <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D4">
         <v>203</v>
@@ -2187,10 +2182,10 @@
         <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D5">
         <v>204</v>
@@ -2207,10 +2202,10 @@
         <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C6" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D6">
         <v>205</v>
@@ -2227,10 +2222,10 @@
         <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D7">
         <v>206</v>
@@ -2247,10 +2242,10 @@
         <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D8">
         <v>207</v>
@@ -2267,10 +2262,10 @@
         <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C9" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D9">
         <v>208</v>
@@ -2287,10 +2282,10 @@
         <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C10" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D10">
         <v>209</v>
@@ -2307,10 +2302,10 @@
         <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D11">
         <v>210</v>
@@ -2327,10 +2322,10 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C12" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D12">
         <v>211</v>
@@ -2347,10 +2342,10 @@
         <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D13">
         <v>212</v>
@@ -2367,10 +2362,10 @@
         <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C14" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D14">
         <v>213</v>
@@ -2384,19 +2379,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D15">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>153</v>
@@ -2407,16 +2402,16 @@
         <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D16">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>154</v>
@@ -2427,16 +2422,16 @@
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C17" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D17">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -2447,19 +2442,19 @@
         <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C18" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D18">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -2467,19 +2462,19 @@
         <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C19" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D19">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -2487,19 +2482,19 @@
         <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C20" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D20">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -2507,19 +2502,19 @@
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C21" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D21">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -2527,19 +2522,19 @@
         <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C22" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D22">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -2547,59 +2542,59 @@
         <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C23" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D23">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C24" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D24">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D25">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -2607,19 +2602,19 @@
         <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D26">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -2627,19 +2622,19 @@
         <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C27" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D27">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -2647,19 +2642,19 @@
         <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C28" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D28">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -2667,19 +2662,19 @@
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C29" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D29">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -2687,19 +2682,19 @@
         <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C30" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D30">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -2707,19 +2702,19 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C31" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D31">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -2727,19 +2722,19 @@
         <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C32" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D32">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -2747,19 +2742,19 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C33" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D33">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -2767,19 +2762,19 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C34" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D34">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -2787,139 +2782,139 @@
         <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C35" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D35">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C36" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D36">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>174</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C37" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D37">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C38" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D38">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C39" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D39">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C40" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D40">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C41" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D41">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -2927,19 +2922,19 @@
         <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C42" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D42">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -2947,19 +2942,19 @@
         <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C43" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D43">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -2967,79 +2962,79 @@
         <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C44" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D44">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C45" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D45">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C46" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D46">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>184</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C47" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D47">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -3047,10 +3042,10 @@
         <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D48">
         <v>501</v>
@@ -3059,7 +3054,7 @@
         <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -3067,10 +3062,10 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C49" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D49">
         <v>502</v>
@@ -3079,7 +3074,7 @@
         <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -3087,10 +3082,10 @@
         <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C50" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D50">
         <v>503</v>
@@ -3099,7 +3094,7 @@
         <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -3107,10 +3102,10 @@
         <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D51">
         <v>504</v>
@@ -3119,7 +3114,7 @@
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -3127,10 +3122,10 @@
         <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C52" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D52">
         <v>505</v>
@@ -3139,7 +3134,7 @@
         <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -3147,10 +3142,10 @@
         <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C53" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D53">
         <v>506</v>
@@ -3159,27 +3154,27 @@
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C54" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D54">
-        <v>711</v>
+        <v>601</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -3187,239 +3182,239 @@
         <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C55" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D55">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C56" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D56">
-        <v>602</v>
+        <v>701</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C57" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D57">
-        <v>801</v>
+        <v>702</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C58" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D58">
-        <v>802</v>
+        <v>703</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="F58" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C59" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D59">
-        <v>803</v>
+        <v>704</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C60" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D60">
-        <v>804</v>
+        <v>705</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F60" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D61">
-        <v>805</v>
+        <v>706</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C62" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D62">
-        <v>806</v>
+        <v>707</v>
       </c>
       <c r="E62" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C63" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D63">
-        <v>807</v>
+        <v>708</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C64" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D64">
-        <v>808</v>
+        <v>709</v>
       </c>
       <c r="E64" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C65" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D65">
-        <v>809</v>
+        <v>710</v>
       </c>
       <c r="E65" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F65" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C66" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D66">
-        <v>810</v>
+        <v>711</v>
       </c>
       <c r="E66" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -3427,19 +3422,19 @@
         <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C67" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D67">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -3447,19 +3442,19 @@
         <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C68" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D68">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -3467,19 +3462,19 @@
         <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C69" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D69">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F69" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -3487,19 +3482,19 @@
         <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C70" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D70">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -3507,19 +3502,19 @@
         <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C71" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D71">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F71" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -3527,19 +3522,19 @@
         <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C72" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D72">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F72" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -3547,19 +3542,19 @@
         <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C73" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D73">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="E73" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F73" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -3567,19 +3562,19 @@
         <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C74" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D74">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="E74" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F74" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -3587,19 +3582,19 @@
         <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C75" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D75">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="E75" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F75" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -3607,19 +3602,19 @@
         <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C76" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D76">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="E76" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -3627,19 +3622,19 @@
         <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C77" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D77">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="E77" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F77" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -3647,19 +3642,19 @@
         <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C78" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D78">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F78" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -3667,19 +3662,19 @@
         <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C79" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D79">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="E79" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -3687,19 +3682,19 @@
         <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C80" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D80">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F80" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -3707,19 +3702,19 @@
         <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C81" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D81">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="E81" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -3727,19 +3722,19 @@
         <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C82" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D82">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F82" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -3747,19 +3742,19 @@
         <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C83" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D83">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="E83" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -3767,19 +3762,19 @@
         <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C84" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D84">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F84" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -3787,19 +3782,19 @@
         <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C85" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D85">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="E85" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F85" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -3807,19 +3802,19 @@
         <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C86" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D86">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E86" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F86" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -3827,19 +3822,19 @@
         <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C87" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D87">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E87" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F87" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -3847,19 +3842,19 @@
         <v>134</v>
       </c>
       <c r="B88" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C88" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D88">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="E88" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -3867,19 +3862,19 @@
         <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C89" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D89">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E89" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F89" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -3887,19 +3882,19 @@
         <v>134</v>
       </c>
       <c r="B90" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C90" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D90">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>228</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -3907,19 +3902,19 @@
         <v>134</v>
       </c>
       <c r="B91" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C91" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D91">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E91" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>229</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -3927,19 +3922,19 @@
         <v>134</v>
       </c>
       <c r="B92" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C92" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D92">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="E92" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -3947,19 +3942,19 @@
         <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C93" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D93">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
@@ -3967,19 +3962,19 @@
         <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C94" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D94">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="E94" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
@@ -3987,19 +3982,19 @@
         <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C95" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D95">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E95" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F95" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
@@ -4007,19 +4002,19 @@
         <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C96" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D96">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -4027,19 +4022,19 @@
         <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C97" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D97">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="E97" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
@@ -4047,19 +4042,19 @@
         <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C98" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D98">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="E98" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -4067,19 +4062,19 @@
         <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C99" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D99">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="E99" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F99" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -4087,19 +4082,19 @@
         <v>134</v>
       </c>
       <c r="B100" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C100" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D100">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F100" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
@@ -4107,19 +4102,19 @@
         <v>134</v>
       </c>
       <c r="B101" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C101" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D101">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F101" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
@@ -4127,219 +4122,219 @@
         <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C102" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D102">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="E102" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F102" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D103">
-        <v>701</v>
+        <v>837</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F103" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C104" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D104">
-        <v>702</v>
+        <v>838</v>
       </c>
       <c r="E104" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F104" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C105" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D105">
-        <v>703</v>
+        <v>839</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="F105" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C106" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D106">
-        <v>704</v>
+        <v>840</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F106" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C107" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D107">
-        <v>705</v>
+        <v>841</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F107" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C108" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D108">
-        <v>706</v>
+        <v>842</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F108" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C109" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D109">
-        <v>707</v>
+        <v>843</v>
       </c>
       <c r="E109" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F109" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C110" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D110">
-        <v>708</v>
+        <v>844</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F110" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C111" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D111">
-        <v>709</v>
+        <v>845</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F111" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C112" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D112">
-        <v>710</v>
+        <v>846</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F112" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -4347,10 +4342,10 @@
         <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C113" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D113">
         <v>847</v>
@@ -4359,7 +4354,7 @@
         <v>111</v>
       </c>
       <c r="F113" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -4367,10 +4362,10 @@
         <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C114" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D114">
         <v>848</v>
@@ -4379,7 +4374,7 @@
         <v>112</v>
       </c>
       <c r="F114" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -4387,10 +4382,10 @@
         <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C115" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D115">
         <v>849</v>
@@ -4399,7 +4394,7 @@
         <v>113</v>
       </c>
       <c r="F115" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
@@ -4407,10 +4402,10 @@
         <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C116" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D116">
         <v>850</v>
@@ -4419,7 +4414,7 @@
         <v>114</v>
       </c>
       <c r="F116" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
@@ -4427,10 +4422,10 @@
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C117" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D117">
         <v>851</v>
@@ -4439,7 +4434,7 @@
         <v>110</v>
       </c>
       <c r="F117" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
@@ -4450,7 +4445,7 @@
         <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D118">
         <v>852</v>
@@ -4459,7 +4454,7 @@
         <v>123</v>
       </c>
       <c r="F118" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
@@ -4470,7 +4465,7 @@
         <v>115</v>
       </c>
       <c r="C119" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D119">
         <v>853</v>
@@ -4479,7 +4474,7 @@
         <v>125</v>
       </c>
       <c r="F119" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
@@ -4490,7 +4485,7 @@
         <v>115</v>
       </c>
       <c r="C120" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D120">
         <v>854</v>
@@ -4499,7 +4494,7 @@
         <v>116</v>
       </c>
       <c r="F120" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
@@ -4510,7 +4505,7 @@
         <v>115</v>
       </c>
       <c r="C121" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D121">
         <v>855</v>
@@ -4519,7 +4514,7 @@
         <v>117</v>
       </c>
       <c r="F121" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
@@ -4530,7 +4525,7 @@
         <v>115</v>
       </c>
       <c r="C122" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D122">
         <v>856</v>
@@ -4539,7 +4534,7 @@
         <v>118</v>
       </c>
       <c r="F122" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
@@ -4550,7 +4545,7 @@
         <v>115</v>
       </c>
       <c r="C123" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D123">
         <v>857</v>
@@ -4559,7 +4554,7 @@
         <v>119</v>
       </c>
       <c r="F123" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
@@ -4570,7 +4565,7 @@
         <v>115</v>
       </c>
       <c r="C124" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D124">
         <v>858</v>
@@ -4579,7 +4574,7 @@
         <v>120</v>
       </c>
       <c r="F124" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
@@ -4590,7 +4585,7 @@
         <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D125">
         <v>859</v>
@@ -4599,7 +4594,7 @@
         <v>121</v>
       </c>
       <c r="F125" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
@@ -4610,7 +4605,7 @@
         <v>115</v>
       </c>
       <c r="C126" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D126">
         <v>860</v>
@@ -4619,7 +4614,7 @@
         <v>122</v>
       </c>
       <c r="F126" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
@@ -4630,7 +4625,7 @@
         <v>115</v>
       </c>
       <c r="C127" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D127">
         <v>861</v>
@@ -4639,7 +4634,7 @@
         <v>124</v>
       </c>
       <c r="F127" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
@@ -4647,10 +4642,10 @@
         <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C128" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="D128">
         <v>862</v>
@@ -4659,7 +4654,7 @@
         <v>126</v>
       </c>
       <c r="F128" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
@@ -4667,10 +4662,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C129" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="D129">
         <v>863</v>
@@ -4679,7 +4674,7 @@
         <v>127</v>
       </c>
       <c r="F129" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
@@ -4687,10 +4682,10 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C130" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="D130">
         <v>864</v>
@@ -4699,115 +4694,111 @@
         <v>128</v>
       </c>
       <c r="F130" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B131" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C131" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D131">
         <v>101</v>
       </c>
       <c r="E131" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="F131" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B132" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C132" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D132">
         <v>102</v>
       </c>
       <c r="E132" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F132" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B133" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C133" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D133">
         <v>103</v>
       </c>
       <c r="E133" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F133" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B134" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C134" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D134">
         <v>104</v>
       </c>
       <c r="E134" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="F134" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B135" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C135" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D135">
         <v>105</v>
       </c>
       <c r="E135" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="F135" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{AC04EC46-81FA-4D47-950D-9462FD1FA8D6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E130">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F135" xr:uid="{2C6805F0-3DE4-422A-8E89-1F55FE708D39}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4815,6 +4806,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809C3C0D-BE4F-4CC4-863A-AF2B4A64627B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44519A7-C862-481D-A366-6F6F3746B179}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4830,58 +4836,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB7924D-8F81-4C10-A567-6E4782130D70}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4905,42 +4911,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +4955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7ACC71-B17A-4537-A7B4-763D2DB158CA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4961,35 +4967,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4998,7 +5004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA63A155-383B-4009-AF2E-6DD5AC63C8B8}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5013,42 +5019,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5057,7 +5063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A238784C-B4D9-47B7-9DA3-3916301736F7}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -5073,282 +5079,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B31" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B32" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
